--- a/Docs/Checklist/WorkChecklist.xlsx
+++ b/Docs/Checklist/WorkChecklist.xlsx
@@ -16,12 +16,12 @@
     <sheet name="TableData" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project 1'!$B$3:$B$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project 1'!$C$3:$C$23</definedName>
     <definedName name="CategoryCat">TableData!$B$2:$B$5</definedName>
     <definedName name="ColumnTitle1">Project1[[#Headers],[Done?]]</definedName>
     <definedName name="ColumnTitle2">#REF!</definedName>
     <definedName name="ColumnTitle3">#REF!</definedName>
-    <definedName name="ComponentCat">TableData!$C$2:$C$5</definedName>
+    <definedName name="ComponentCat">TableData!$D$2:$D$5</definedName>
     <definedName name="DeveloperCat">Table2[Developer]</definedName>
     <definedName name="DynamicCat">Table2[#Headers]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project 1'!$3:$3</definedName>
@@ -32,17 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
   <si>
     <t>Done?</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>To-do list</t>
-  </si>
-  <si>
     <t>Date Start</t>
   </si>
   <si>
@@ -101,6 +95,78 @@
   </si>
   <si>
     <t>Details</t>
+  </si>
+  <si>
+    <t>Software Feature Checklist and Bug Report</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Edge Scrolling Does not function properly in full build</t>
+  </si>
+  <si>
+    <t>Completion Notes</t>
+  </si>
+  <si>
+    <t>Edge Scrolling currently only functions properly in the display port window in the editor, Pressing "Launch Game" causes it to list the camera downward  with no change based on cursor location</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Build Button Should Display Sub-Menu / Buttons</t>
+  </si>
+  <si>
+    <t>Feature Request for Build Button to only be displayed when a builder is selected, additionally, upon press the build button should expand into an intuitve menu of available structures</t>
+  </si>
+  <si>
+    <t>Complete Seige Weight Paint + Rigging</t>
+  </si>
+  <si>
+    <t>Complete Armature Rigging and weight painting for Siege Minion Mesh (Does not include Animation Set)</t>
+  </si>
+  <si>
+    <t>Adjust Scaling on Mine Static Mesh</t>
+  </si>
+  <si>
+    <t>Static mesh + Collision Mesh is ~100x smaller than intended size.  This should be edited in either the blender file or the import option into UE4</t>
+  </si>
+  <si>
+    <t>RTS Camera Zoom Limits Do Not Match Implementation</t>
+  </si>
+  <si>
+    <t>The Camera (at least as of now), currently sits below the threshold for forward zoom, making it impossible to zoom in before zooming out substatially</t>
+  </si>
+  <si>
+    <t>Create Spawner Static Mesh</t>
+  </si>
+  <si>
+    <t>Generate the Initial design of the Spawner mesh (includes collision)</t>
+  </si>
+  <si>
+    <t>Create Mine Thumbnail</t>
+  </si>
+  <si>
+    <t>Blender Features the ability to create thumbnails that will be used as the button selection from the build sub-menu. As a test case, please generate this for the mine structure.</t>
   </si>
 </sst>
 </file>
@@ -110,9 +176,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,6 +250,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Marlett"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,62 +285,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -258,7 +372,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -279,7 +406,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -396,6 +527,30 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Marlett"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -448,9 +603,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="To do list for projects" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="To do list for projects" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -533,19 +688,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Project1" displayName="Project1" ref="B3:I23" totalsRowShown="0" dataDxfId="8" headerRowCellStyle="Heading 3">
-  <autoFilter ref="B3:I23"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Done?" dataDxfId="7"/>
-    <tableColumn id="8" name="Project Component" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Project1" displayName="Project1" ref="B3:K23" totalsRowShown="0" dataDxfId="10" headerRowCellStyle="Heading 3">
+  <tableColumns count="10">
+    <tableColumn id="6" name="Title" dataDxfId="9"/>
+    <tableColumn id="1" name="Done?" dataDxfId="8"/>
+    <tableColumn id="8" name="Project Component" dataDxfId="7">
       <calculatedColumnFormula>Table2[]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Project Category" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Developer" dataDxfId="3"/>
+    <tableColumn id="2" name="Project Category" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Developer" dataDxfId="5"/>
     <tableColumn id="3" name="Date Start" dataDxfId="4" dataCellStyle="Date"/>
-    <tableColumn id="5" name="Completion Date" dataDxfId="2" dataCellStyle="Date"/>
-    <tableColumn id="9" name="Details" dataDxfId="0" dataCellStyle="Date"/>
-    <tableColumn id="4" name="Notes" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Completion Date" dataDxfId="3" dataCellStyle="Date"/>
+    <tableColumn id="10" name="Priority" dataDxfId="2" dataCellStyle="Date"/>
+    <tableColumn id="9" name="Details" dataDxfId="1" dataCellStyle="Date"/>
+    <tableColumn id="4" name="Completion Notes" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="To do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -557,11 +713,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Developer"/>
     <tableColumn id="2" name="Category"/>
+    <tableColumn id="4" name="Severity"/>
     <tableColumn id="3" name="Component"/>
   </tableColumns>
   <tableStyleInfo name="To do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -857,1396 +1014,1510 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I177"/>
+  <dimension ref="B1:K177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="17.796875" customWidth="1"/>
     <col min="6" max="6" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="30.59765625" customWidth="1"/>
-    <col min="10" max="10" width="2.59765625" customWidth="1"/>
-    <col min="11" max="11" width="9.59765625" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" customWidth="1"/>
+    <col min="10" max="10" width="26.8984375" customWidth="1"/>
+    <col min="11" max="11" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+    <row r="1" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="H3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="9" t="s">
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="2:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
     </row>
     <row r="50" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
     </row>
     <row r="67" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
     </row>
     <row r="68" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
     </row>
     <row r="70" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
     </row>
     <row r="71" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
     </row>
     <row r="73" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
     </row>
     <row r="75" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
     </row>
     <row r="77" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
     </row>
     <row r="78" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
     </row>
     <row r="79" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
     </row>
     <row r="80" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
     </row>
     <row r="81" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
     </row>
     <row r="82" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
     </row>
     <row r="83" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
     </row>
     <row r="84" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
     </row>
     <row r="85" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
     </row>
     <row r="86" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
     </row>
     <row r="87" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
     </row>
     <row r="88" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
     </row>
     <row r="89" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
     </row>
     <row r="90" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
     </row>
     <row r="91" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
     </row>
     <row r="92" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
     </row>
     <row r="93" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
     </row>
     <row r="94" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
     </row>
     <row r="95" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
     </row>
     <row r="96" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
     </row>
     <row r="97" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
     </row>
     <row r="98" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
     </row>
     <row r="99" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
     </row>
     <row r="100" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
     </row>
     <row r="101" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
     </row>
     <row r="102" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
     </row>
     <row r="103" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
     </row>
     <row r="104" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
     </row>
     <row r="105" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
     </row>
     <row r="106" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
     </row>
     <row r="107" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
     </row>
     <row r="108" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
     </row>
     <row r="109" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
+      <c r="C109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
     </row>
     <row r="110" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
+      <c r="C110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
     </row>
     <row r="111" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
+      <c r="C111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
     </row>
     <row r="112" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="10"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="10"/>
+      <c r="C113" s="9"/>
     </row>
     <row r="114" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="10"/>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="10"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="10"/>
+      <c r="C116" s="9"/>
     </row>
     <row r="117" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="10"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="10"/>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="10"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="10"/>
+      <c r="C120" s="9"/>
     </row>
     <row r="121" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="10"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="10"/>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="10"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="10"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="10"/>
+      <c r="C125" s="9"/>
     </row>
     <row r="126" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="10"/>
+      <c r="C126" s="9"/>
     </row>
     <row r="127" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="10"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="10"/>
+      <c r="C128" s="9"/>
     </row>
     <row r="129" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="10"/>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="10"/>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="10"/>
+      <c r="C131" s="9"/>
     </row>
     <row r="132" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="10"/>
+      <c r="C132" s="9"/>
     </row>
     <row r="133" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="10"/>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="10"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="135" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="10"/>
+      <c r="C135" s="9"/>
     </row>
     <row r="136" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="10"/>
+      <c r="C136" s="9"/>
     </row>
     <row r="137" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="10"/>
+      <c r="C137" s="9"/>
     </row>
     <row r="138" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="10"/>
+      <c r="C138" s="9"/>
     </row>
     <row r="139" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="10"/>
+      <c r="C139" s="9"/>
     </row>
     <row r="140" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="10"/>
+      <c r="C140" s="9"/>
     </row>
     <row r="141" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="10"/>
+      <c r="C141" s="9"/>
     </row>
     <row r="142" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="10"/>
+      <c r="C142" s="9"/>
     </row>
     <row r="143" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="10"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="10"/>
+      <c r="C144" s="9"/>
     </row>
     <row r="145" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="10"/>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="10"/>
+      <c r="C146" s="9"/>
     </row>
     <row r="147" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="10"/>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="10"/>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="10"/>
+      <c r="C149" s="9"/>
     </row>
     <row r="150" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="10"/>
+      <c r="C150" s="9"/>
     </row>
     <row r="151" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="10"/>
+      <c r="C151" s="9"/>
     </row>
     <row r="152" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="10"/>
+      <c r="C152" s="9"/>
     </row>
     <row r="153" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="10"/>
+      <c r="C153" s="9"/>
     </row>
     <row r="154" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="10"/>
+      <c r="C154" s="9"/>
     </row>
     <row r="155" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C155" s="10"/>
+      <c r="C155" s="9"/>
     </row>
     <row r="156" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C156" s="10"/>
+      <c r="C156" s="9"/>
     </row>
     <row r="157" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C157" s="10"/>
+      <c r="C157" s="9"/>
     </row>
     <row r="158" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C158" s="10"/>
+      <c r="C158" s="9"/>
     </row>
     <row r="159" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C159" s="10"/>
+      <c r="C159" s="9"/>
     </row>
     <row r="160" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C160" s="10"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C161" s="10"/>
+      <c r="C161" s="9"/>
     </row>
     <row r="162" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C162" s="10"/>
+      <c r="C162" s="9"/>
     </row>
     <row r="163" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C163" s="10"/>
+      <c r="C163" s="9"/>
     </row>
     <row r="164" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="10"/>
+      <c r="C164" s="9"/>
     </row>
     <row r="165" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="10"/>
+      <c r="C165" s="9"/>
     </row>
     <row r="166" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C166" s="10"/>
+      <c r="C166" s="9"/>
     </row>
     <row r="167" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="10"/>
+      <c r="C167" s="9"/>
     </row>
     <row r="168" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C168" s="10"/>
+      <c r="C168" s="9"/>
     </row>
     <row r="169" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C169" s="10"/>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C170" s="10"/>
+      <c r="C170" s="9"/>
     </row>
     <row r="171" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C171" s="10"/>
+      <c r="C171" s="9"/>
     </row>
     <row r="172" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C172" s="10"/>
+      <c r="C172" s="9"/>
     </row>
     <row r="173" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="10"/>
+      <c r="C173" s="9"/>
     </row>
     <row r="174" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C174" s="10"/>
+      <c r="C174" s="9"/>
     </row>
     <row r="175" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C175" s="10"/>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C176" s="10"/>
+      <c r="C176" s="9"/>
     </row>
     <row r="177" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C177" s="10"/>
+      <c r="C177" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations xWindow="246" yWindow="520" count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list for projects in this workbook. Enter project details for Project 1 in this worksheet and details of Project 2 and Project 3 in subsequent worksheets" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of worksheet is in this cell. Enter Name of person to complete this project in cell at right and Deadline Date in cell E2. Enter project details in table starting in cell B3" sqref="B1:H1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in this cell" sqref="I1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Deadline Date in this cell" sqref="I2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project 1 phases in this column under this heading" sqref="D3:E3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due By date in this column under this heading" sqref="F3:H14"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3:I14"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter 'A' for completed tasks in this column under this heading. Use heading filters to find specific entries" sqref="B3:B14 C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C23">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project 1 phases in this column under this heading" sqref="E3:F3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="K3:K14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter 'A' for completed tasks in this column under this heading. Use heading filters to find specific entries" sqref="D3 C3:C14 B3:B23"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D23">
       <formula1>ComponentCat</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due By date in this column under this heading" sqref="G3:H14 J3:J14 I3"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2259,18 +2530,24 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="246" yWindow="520" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="246" yWindow="520" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project 1 phases in this column under this heading">
           <x14:formula1>
             <xm:f>TableData!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D23</xm:sqref>
+          <xm:sqref>E4:E23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project 1 phases in this column under this heading">
           <x14:formula1>
             <xm:f>TableData!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E23</xm:sqref>
+          <xm:sqref>F4:F23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due By date in this column under this heading">
+          <x14:formula1>
+            <xm:f>TableData!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>I4:I23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2280,80 +2557,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" customWidth="1"/>
+    <col min="2" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2587,9 +2882,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
     <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Docs/Checklist/WorkChecklist.xlsx
+++ b/Docs/Checklist/WorkChecklist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ettner.c\Documents\GitHub\Control_Alt_Delete\Docs\Checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\Control_Alt_Delete\Docs\Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E84C79E-B7B9-4DBE-B9D6-91991D101730}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="144" windowWidth="11340" windowHeight="6288"/>
+    <workbookView xWindow="360" yWindow="144" windowWidth="11340" windowHeight="6288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t>Done?</t>
   </si>
@@ -167,12 +168,18 @@
   </si>
   <si>
     <t>Blender Features the ability to create thumbnails that will be used as the button selection from the build sub-menu. As a test case, please generate this for the mine structure.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Made scaling changes in unreal. Should be all set.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -301,7 +308,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -357,15 +364,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Date" xfId="5"/>
+    <cellStyle name="Date" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -602,7 +612,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="To do list for projects" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="To do list for projects" pivot="0" count="3">
+    <tableStyle name="To do list for projects" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
@@ -688,20 +698,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Project1" displayName="Project1" ref="B3:K23" totalsRowShown="0" dataDxfId="10" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Project1" displayName="Project1" ref="B3:K23" totalsRowShown="0" dataDxfId="10" headerRowCellStyle="Heading 3">
   <tableColumns count="10">
-    <tableColumn id="6" name="Title" dataDxfId="9"/>
-    <tableColumn id="1" name="Done?" dataDxfId="8"/>
-    <tableColumn id="8" name="Project Component" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Title" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Done?" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Project Component" dataDxfId="7">
       <calculatedColumnFormula>Table2[]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Project Category" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Developer" dataDxfId="5"/>
-    <tableColumn id="3" name="Date Start" dataDxfId="4" dataCellStyle="Date"/>
-    <tableColumn id="5" name="Completion Date" dataDxfId="3" dataCellStyle="Date"/>
-    <tableColumn id="10" name="Priority" dataDxfId="2" dataCellStyle="Date"/>
-    <tableColumn id="9" name="Details" dataDxfId="1" dataCellStyle="Date"/>
-    <tableColumn id="4" name="Completion Notes" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Project Category" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Developer" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date Start" dataDxfId="4" dataCellStyle="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Completion Date" dataDxfId="3" dataCellStyle="Date"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Priority" dataDxfId="2" dataCellStyle="Date"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Details" dataDxfId="1" dataCellStyle="Date"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Completion Notes" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="To do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -713,13 +723,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Developer"/>
-    <tableColumn id="2" name="Category"/>
-    <tableColumn id="4" name="Severity"/>
-    <tableColumn id="3" name="Component"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Developer"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Category"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Severity"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Component"/>
   </tableColumns>
   <tableStyleInfo name="To do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1009,52 +1019,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="18.69921875" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" customWidth="1"/>
-    <col min="10" max="10" width="26.8984375" customWidth="1"/>
-    <col min="11" max="11" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.6171875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.37890625" customWidth="1"/>
+    <col min="4" max="4" width="19.47265625" customWidth="1"/>
+    <col min="5" max="5" width="17.80859375" customWidth="1"/>
+    <col min="6" max="6" width="13.1875" customWidth="1"/>
+    <col min="7" max="7" width="11.6171875" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.90234375" customWidth="1"/>
+    <col min="10" max="10" width="26.90234375" customWidth="1"/>
+    <col min="11" max="11" width="21.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="1">
+      <c r="B1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1120,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="2:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
@@ -1134,7 +1144,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="2:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
@@ -1158,11 +1168,13 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="2:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1177,12 +1189,14 @@
       <c r="I7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="2:11" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="76.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="16" t="s">
         <v>39</v>
       </c>
@@ -1201,12 +1215,12 @@
       <c r="I8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="2:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="16" t="s">
         <v>41</v>
       </c>
@@ -1225,12 +1239,12 @@
       <c r="I9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>42</v>
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="2:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="96" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="16" t="s">
         <v>43</v>
       </c>
@@ -1249,12 +1263,12 @@
       <c r="I10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
       <c r="C11" s="3"/>
       <c r="D11" s="8" t="s">
@@ -1274,7 +1288,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="16"/>
       <c r="C12" s="3"/>
       <c r="D12" s="8" t="s">
@@ -1294,7 +1308,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
       <c r="C13" s="3"/>
       <c r="D13" s="8" t="s">
@@ -1314,7 +1328,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="16"/>
       <c r="C14" s="3"/>
       <c r="D14" s="8" t="s">
@@ -1334,7 +1348,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
       <c r="C15" s="4"/>
       <c r="D15" s="8" t="s">
@@ -1354,7 +1368,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="17"/>
       <c r="C16" s="4"/>
       <c r="D16" s="8" t="s">
@@ -1374,7 +1388,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="17"/>
       <c r="C17" s="4"/>
       <c r="D17" s="8" t="s">
@@ -1394,7 +1408,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="17"/>
       <c r="C18" s="4"/>
       <c r="D18" s="8" t="s">
@@ -1414,7 +1428,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="17"/>
       <c r="C19" s="4"/>
       <c r="D19" s="8" t="s">
@@ -1434,7 +1448,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="17"/>
       <c r="C20" s="4"/>
       <c r="D20" s="8" t="s">
@@ -1454,7 +1468,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="18"/>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
@@ -1474,7 +1488,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="18"/>
       <c r="C22" s="4"/>
       <c r="D22" s="8" t="s">
@@ -1494,7 +1508,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="18"/>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
@@ -1514,7 +1528,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1523,7 +1537,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -1532,7 +1546,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -1541,7 +1555,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -1550,7 +1564,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -1559,7 +1573,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1568,7 +1582,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1577,7 +1591,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1586,7 +1600,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -1595,7 +1609,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -1604,7 +1618,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1613,7 +1627,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -1622,7 +1636,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -1631,7 +1645,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -1640,7 +1654,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -1649,7 +1663,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -1658,7 +1672,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -1667,7 +1681,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -1676,7 +1690,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -1685,7 +1699,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -1694,7 +1708,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -1703,7 +1717,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -1712,7 +1726,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -1721,7 +1735,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -1730,7 +1744,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -1739,7 +1753,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -1748,7 +1762,7 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -1757,7 +1771,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -1766,7 +1780,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -1775,7 +1789,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -1784,7 +1798,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -1793,7 +1807,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -1802,7 +1816,7 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -1811,7 +1825,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -1820,7 +1834,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -1829,7 +1843,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -1838,7 +1852,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -1847,7 +1861,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -1856,7 +1870,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -1865,7 +1879,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -1874,7 +1888,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -1883,7 +1897,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -1892,7 +1906,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -1901,7 +1915,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -1910,7 +1924,7 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -1919,7 +1933,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -1928,7 +1942,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -1937,7 +1951,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -1946,7 +1960,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -1955,7 +1969,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -1964,7 +1978,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -1973,7 +1987,7 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -1982,7 +1996,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -1991,7 +2005,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -2000,7 +2014,7 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -2009,7 +2023,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -2018,7 +2032,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -2027,7 +2041,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -2036,7 +2050,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -2045,7 +2059,7 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -2054,7 +2068,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -2063,7 +2077,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -2072,7 +2086,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -2081,7 +2095,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -2090,7 +2104,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -2099,7 +2113,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -2108,7 +2122,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -2117,7 +2131,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -2126,7 +2140,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -2135,7 +2149,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -2144,7 +2158,7 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="94" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -2153,7 +2167,7 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -2162,7 +2176,7 @@
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -2171,7 +2185,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -2180,7 +2194,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -2189,7 +2203,7 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -2198,7 +2212,7 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -2207,7 +2221,7 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -2216,7 +2230,7 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -2225,7 +2239,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -2234,7 +2248,7 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -2243,7 +2257,7 @@
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="105" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -2252,7 +2266,7 @@
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
-    <row r="106" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -2261,7 +2275,7 @@
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
     </row>
-    <row r="107" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -2270,7 +2284,7 @@
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -2279,7 +2293,7 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
@@ -2287,7 +2301,7 @@
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
     </row>
-    <row r="110" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
@@ -2295,7 +2309,7 @@
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
     </row>
-    <row r="111" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
@@ -2303,202 +2317,202 @@
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
     </row>
-    <row r="112" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C112" s="9"/>
     </row>
-    <row r="113" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C113" s="9"/>
     </row>
-    <row r="114" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C114" s="9"/>
     </row>
-    <row r="115" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C115" s="9"/>
     </row>
-    <row r="116" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C116" s="9"/>
     </row>
-    <row r="117" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C117" s="9"/>
     </row>
-    <row r="118" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C118" s="9"/>
     </row>
-    <row r="119" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C119" s="9"/>
     </row>
-    <row r="120" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C120" s="9"/>
     </row>
-    <row r="121" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C121" s="9"/>
     </row>
-    <row r="122" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C122" s="9"/>
     </row>
-    <row r="123" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C123" s="9"/>
     </row>
-    <row r="124" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C124" s="9"/>
     </row>
-    <row r="125" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C125" s="9"/>
     </row>
-    <row r="126" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C126" s="9"/>
     </row>
-    <row r="127" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C127" s="9"/>
     </row>
-    <row r="128" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C128" s="9"/>
     </row>
-    <row r="129" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C131" s="9"/>
     </row>
-    <row r="132" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C134" s="9"/>
     </row>
-    <row r="135" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C137" s="9"/>
     </row>
-    <row r="138" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C140" s="9"/>
     </row>
-    <row r="141" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C143" s="9"/>
     </row>
-    <row r="144" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C146" s="9"/>
     </row>
-    <row r="147" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C149" s="9"/>
     </row>
-    <row r="150" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C151" s="9"/>
     </row>
-    <row r="152" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C153" s="9"/>
     </row>
-    <row r="154" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C154" s="9"/>
     </row>
-    <row r="155" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C155" s="9"/>
     </row>
-    <row r="156" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C156" s="9"/>
     </row>
-    <row r="157" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C157" s="9"/>
     </row>
-    <row r="158" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C158" s="9"/>
     </row>
-    <row r="159" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C159" s="9"/>
     </row>
-    <row r="160" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C160" s="9"/>
     </row>
-    <row r="161" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C161" s="9"/>
     </row>
-    <row r="162" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C162" s="9"/>
     </row>
-    <row r="163" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C163" s="9"/>
     </row>
-    <row r="164" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C164" s="9"/>
     </row>
-    <row r="165" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C165" s="9"/>
     </row>
-    <row r="166" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C166" s="9"/>
     </row>
-    <row r="167" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C167" s="9"/>
     </row>
-    <row r="168" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C168" s="9"/>
     </row>
-    <row r="169" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C169" s="9"/>
     </row>
-    <row r="170" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C170" s="9"/>
     </row>
-    <row r="171" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C171" s="9"/>
     </row>
-    <row r="172" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C172" s="9"/>
     </row>
-    <row r="173" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C173" s="9"/>
     </row>
-    <row r="174" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C174" s="9"/>
     </row>
-    <row r="175" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C175" s="9"/>
     </row>
-    <row r="176" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C176" s="9"/>
     </row>
-    <row r="177" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C177" s="9"/>
     </row>
   </sheetData>
@@ -2507,17 +2521,17 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations xWindow="246" yWindow="520" count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list for projects in this workbook. Enter project details for Project 1 in this worksheet and details of Project 2 and Project 3 in subsequent worksheets" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of worksheet is in this cell. Enter Name of person to complete this project in cell at right and Deadline Date in cell E2. Enter project details in table starting in cell B3" sqref="B1:H1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in this cell" sqref="I1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Deadline Date in this cell" sqref="I2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project 1 phases in this column under this heading" sqref="E3:F3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="K3:K14"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter 'A' for completed tasks in this column under this heading. Use heading filters to find specific entries" sqref="D3 C3:C14 B3:B23"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D23">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list for projects in this workbook. Enter project details for Project 1 in this worksheet and details of Project 2 and Project 3 in subsequent worksheets" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of worksheet is in this cell. Enter Name of person to complete this project in cell at right and Deadline Date in cell E2. Enter project details in table starting in cell B3" sqref="B1:H1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in this cell" sqref="I1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Deadline Date in this cell" sqref="I2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project 1 phases in this column under this heading" sqref="E3:F3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="K3:K14" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter 'A' for completed tasks in this column under this heading. Use heading filters to find specific entries" sqref="D3 C3:C14 B3:B23" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D23" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>ComponentCat</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due By date in this column under this heading" sqref="G3:H14 J3:J14 I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due By date in this column under this heading" sqref="G3:H14 J3:J14 I3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2531,19 +2545,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="246" yWindow="520" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project 1 phases in this column under this heading">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project 1 phases in this column under this heading" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>TableData!$B$2:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>E4:E23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project 1 phases in this column under this heading">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project 1 phases in this column under this heading" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>TableData!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>F4:F23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due By date in this column under this heading">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due By date in this column under this heading" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
             <xm:f>TableData!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -2556,21 +2570,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" customWidth="1"/>
-    <col min="2" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.6171875" customWidth="1"/>
+    <col min="4" max="4" width="12.80859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2584,7 +2598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2598,7 +2612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2612,7 +2626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2626,7 +2640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2640,7 +2654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>

--- a/Docs/Checklist/WorkChecklist.xlsx
+++ b/Docs/Checklist/WorkChecklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\Control_Alt_Delete\Docs\Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E84C79E-B7B9-4DBE-B9D6-91991D101730}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8DA608B1-EB73-4B3F-ACB1-34BD1EAA2BE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="144" windowWidth="11340" windowHeight="6288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>Done?</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Made scaling changes in unreal. Should be all set.</t>
+  </si>
+  <si>
+    <t>Spawner building mesh imported in Unreal along with its collision mesh. Everything looks to be scaled</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -367,11 +370,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1026,8 +1032,8 @@
   </sheetPr>
   <dimension ref="B1:K177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -1046,13 +1052,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="1">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="2"/>
@@ -1192,7 +1198,7 @@
       <c r="J7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1224,7 +1230,9 @@
       <c r="B9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1242,7 +1250,9 @@
       <c r="J9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="2:11" ht="96" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="16" t="s">
@@ -2855,6 +2865,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
@@ -2863,15 +2882,6 @@
     <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2894,6 +2904,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE30400F-CAE8-4146-AE00-683424BA2263}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2908,12 +2926,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE30400F-CAE8-4146-AE00-683424BA2263}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>